--- a/frontend/r.xlsx
+++ b/frontend/r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t xml:space="preserve"> My custom Value </t>
   </si>
@@ -41,13 +41,13 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">demo1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ertuğrul</t>
   </si>
   <si>
     <t xml:space="preserve">Esy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demo2</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -387,41 +387,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
